--- a/Thesis/Értékelés.xlsx
+++ b/Thesis/Értékelés.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VolumeRendering\Research\VolumeRendering\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94454DF5-6EFF-4733-8A34-406D7FEB6FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D748B8-D8B1-443D-9649-F34FC057CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15720" xr2:uid="{59880202-B4B2-417B-BDC0-00DDDC9F6902}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Metaball</t>
   </si>
@@ -73,11 +73,29 @@
   <si>
     <t>0.3 ms</t>
   </si>
+  <si>
+    <t>Memória</t>
+  </si>
+  <si>
+    <t>Konstansok</t>
+  </si>
+  <si>
+    <t>Metaball/Pixel</t>
+  </si>
+  <si>
+    <t>Felbontás</t>
+  </si>
+  <si>
+    <t>Struktúra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;MB&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,11 +131,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,20 +248,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$5</c:f>
@@ -473,7 +484,371 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memória</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\ "MB"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>511.29150390625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334.79118347167969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244.1558837890625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210.76393127441406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-481A-4429-854C-60A36F5D9FBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="504552784"/>
+        <c:axId val="504534480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="504552784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504534480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="504534480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\ &quot;MB&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504552784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1029,6 +1404,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1062,6 +1953,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C4CF01-3302-8411-0936-03F98B26DECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1367,15 +2294,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E507F0FE-2F55-45C1-875B-17C67A5420E9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,8 +2320,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1402,8 +2337,12 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="4">
+        <f>((B2*$B$11+B2*$B$9*$B$11+$B$10))/(1024*1024)</f>
+        <v>511.29150390625</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1416,8 +2355,12 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E5" si="0">((B3*$B$11+B3*$B$9*$B$11+$B$10))/(1024*1024)</f>
+        <v>334.79118347167969</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,8 +2373,12 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>244.1558837890625</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1444,8 +2391,46 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>210.76393127441406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>600*600*600</f>
+        <v>216000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
